--- a/WebContent/assets/MovieData.xlsx
+++ b/WebContent/assets/MovieData.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,10 +472,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>102</v>
